--- a/NformTester/NformTester/keywordscripts/TST1120_CopyDeviceFeature.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST1120_CopyDeviceFeature.xlsx
@@ -1240,7 +1240,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7634" uniqueCount="852">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7634" uniqueCount="851">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3735,14 +3735,6 @@
     <t>SingleManual</t>
   </si>
   <si>
-    <t>10.146.83.10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ABC GXT UPS"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"Description for GXT"</t>
   </si>
   <si>
@@ -3795,17 +3787,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"ABC GXT UPS"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ABC GXT UPS</t>
-  </si>
-  <si>
-    <t>10.146.83.10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Click</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3839,6 +3820,22 @@
   <si>
     <t>Sashimi</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNMPdevice_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMPdevice_0$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$GXT_0_NAME$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$GXT_0_NAME$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4386,7 +4383,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="F25" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -4475,7 +4474,7 @@
         <v>800</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
@@ -4569,7 +4568,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -4593,7 +4592,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -4611,7 +4610,7 @@
         <v>797</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="C8" s="4">
         <v>7</v>
@@ -4630,19 +4629,19 @@
         <v>823</v>
       </c>
       <c r="I8" s="4" t="s">
+        <v>848</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>849</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>824</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>825</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>826</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>813</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="N8" s="14"/>
     </row>
@@ -4657,7 +4656,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -4745,7 +4744,7 @@
         <v>56</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>840</v>
+        <v>850</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -4803,13 +4802,13 @@
         <v>7</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>841</v>
+        <v>850</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
@@ -4835,13 +4834,13 @@
         <v>7</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
@@ -4867,13 +4866,13 @@
         <v>7</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="I16" s="9" t="s">
+        <v>834</v>
+      </c>
+      <c r="J16" s="4" t="s">
         <v>836</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>838</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
@@ -4899,10 +4898,10 @@
         <v>7</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="J17" s="4" t="s">
         <v>553</v>
@@ -4931,13 +4930,13 @@
         <v>7</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
@@ -4963,7 +4962,7 @@
         <v>7</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="I19" s="9" t="b">
         <v>1</v>
@@ -4993,7 +4992,7 @@
         <v>7</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="I20" s="9" t="b">
         <v>1</v>
@@ -5044,7 +5043,7 @@
         <v>17</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="H22" s="9"/>
       <c r="I22" s="4"/>
@@ -5095,7 +5094,7 @@
         <v>4</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="9"/>
@@ -5121,7 +5120,7 @@
         <v>4</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="9"/>
@@ -5147,7 +5146,7 @@
         <v>4</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="I26" s="4"/>
       <c r="J26" s="9"/>
@@ -5197,7 +5196,7 @@
         <v>56</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="I28" s="4"/>
       <c r="J28" s="9"/>
@@ -5247,13 +5246,13 @@
         <v>7</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="I30" s="9" t="s">
+        <v>834</v>
+      </c>
+      <c r="J30" s="4" t="s">
         <v>836</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>838</v>
       </c>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
@@ -5277,10 +5276,10 @@
         <v>7</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="J31" s="4" t="s">
         <v>553</v>
@@ -5307,7 +5306,7 @@
         <v>7</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="I32" s="4" t="b">
         <v>1</v>
@@ -5335,7 +5334,7 @@
         <v>13</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
@@ -5361,13 +5360,13 @@
         <v>7</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
@@ -5427,7 +5426,7 @@
         <v>36</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
@@ -5493,10 +5492,10 @@
         <v>39</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>608</v>
@@ -5505,7 +5504,7 @@
         <v>3</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
@@ -5519,10 +5518,10 @@
         <v>40</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>213</v>
@@ -5543,7 +5542,7 @@
         <v>41</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>615</v>
@@ -5567,10 +5566,10 @@
         <v>42</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>100</v>

--- a/NformTester/NformTester/keywordscripts/TST1120_CopyDeviceFeature.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST1120_CopyDeviceFeature.xlsx
@@ -1240,7 +1240,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7634" uniqueCount="851">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7634" uniqueCount="850">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3822,19 +3822,15 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>SNMPdevice_0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$SNMPdevice_0$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>$GXT_0_NAME$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>$GXT_0_NAME$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMPdevice_0$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4383,8 +4379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F25" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4629,10 +4625,10 @@
         <v>823</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>824</v>
@@ -4744,7 +4740,7 @@
         <v>56</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -4808,7 +4804,7 @@
         <v>834</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
@@ -4936,7 +4932,7 @@
         <v>834</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>

--- a/NformTester/NformTester/keywordscripts/TST1120_CopyDeviceFeature.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST1120_CopyDeviceFeature.xlsx
@@ -1240,7 +1240,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7634" uniqueCount="850">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7635" uniqueCount="850">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3822,15 +3822,15 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>$GXT_0_NAME$</t>
+    <t>Running Range</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$GXT_0_NAME$</t>
+    <t>$SNMP_device_0$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMPdevice_0$</t>
+    <t>$SNMP_device_0_NAME$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3858,6 +3858,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -3870,6 +3871,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3915,6 +3917,7 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -4379,20 +4382,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.875" customWidth="1"/>
-    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="1" max="1" width="18.75" customWidth="1"/>
+    <col min="2" max="2" width="26.5" customWidth="1"/>
     <col min="4" max="4" width="13.125" customWidth="1"/>
     <col min="5" max="5" width="35.25" customWidth="1"/>
     <col min="6" max="6" width="25.875" customWidth="1"/>
     <col min="7" max="7" width="15.5" customWidth="1"/>
     <col min="8" max="8" width="22.125" customWidth="1"/>
-    <col min="9" max="9" width="13.5" customWidth="1"/>
+    <col min="9" max="9" width="17.5" customWidth="1"/>
     <col min="10" max="10" width="41.625" customWidth="1"/>
     <col min="11" max="11" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
@@ -4558,7 +4561,7 @@
         <v>805</v>
       </c>
       <c r="B6" s="8">
-        <v>41114</v>
+        <v>41445</v>
       </c>
       <c r="C6" s="4">
         <v>5</v>
@@ -4603,11 +4606,9 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2" t="s">
-        <v>797</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>831</v>
-      </c>
+        <v>847</v>
+      </c>
+      <c r="B8" s="7"/>
       <c r="C8" s="4">
         <v>7</v>
       </c>
@@ -4625,10 +4626,10 @@
         <v>823</v>
       </c>
       <c r="I8" s="4" t="s">
+        <v>848</v>
+      </c>
+      <c r="J8" s="4" t="s">
         <v>849</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>847</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>824</v>
@@ -4643,10 +4644,10 @@
     </row>
     <row r="9" spans="1:14" ht="15">
       <c r="A9" s="2" t="s">
-        <v>807</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>808</v>
+        <v>797</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>831</v>
       </c>
       <c r="C9" s="4">
         <v>8</v>
@@ -4666,8 +4667,12 @@
       <c r="N9" s="14"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
+      <c r="A10" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>808</v>
+      </c>
       <c r="C10" s="4">
         <v>9</v>
       </c>
@@ -4692,10 +4697,8 @@
       <c r="N10" s="14"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="2" t="s">
-        <v>809</v>
-      </c>
-      <c r="B11" s="13"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="4">
         <v>10</v>
       </c>
@@ -4721,7 +4724,7 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="2" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B12" s="13"/>
       <c r="C12" s="4">
@@ -4740,7 +4743,7 @@
         <v>56</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -4751,7 +4754,7 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="2" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B13" s="13"/>
       <c r="C13" s="4">
@@ -4779,7 +4782,7 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="2" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="4">
@@ -4804,7 +4807,7 @@
         <v>834</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
@@ -4812,7 +4815,9 @@
       <c r="N14" s="14"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="2"/>
+      <c r="A15" s="2" t="s">
+        <v>812</v>
+      </c>
       <c r="B15" s="13"/>
       <c r="C15" s="4">
         <v>14</v>
@@ -4932,7 +4937,7 @@
         <v>834</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
@@ -4970,8 +4975,8 @@
       <c r="N19" s="14"/>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="16"/>
-      <c r="B20" s="17"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="13"/>
       <c r="C20" s="4">
         <v>19</v>
       </c>
@@ -5026,6 +5031,8 @@
       <c r="N21" s="14"/>
     </row>
     <row r="22" spans="1:14">
+      <c r="A22" s="16"/>
+      <c r="B22" s="17"/>
       <c r="C22" s="4">
         <v>21</v>
       </c>
